--- a/Input_Data_Sheets/SOIL_parameters.xlsx
+++ b/Input_Data_Sheets/SOIL_parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d29a325a694f12f3/Documentos/GitHub/HydroPol2D/Input_Data_Sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{FB67840F-D8C3-4D4D-B4C2-536CF29A3E00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{790861E5-F8D8-4976-A98D-1C59A7601A7D}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{FB67840F-D8C3-4D4D-B4C2-536CF29A3E00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{59B9E363-F4C7-4917-A68D-DABE0E70963C}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SOIL_parameters" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Soil_type</t>
   </si>
@@ -244,9 +244,6 @@
   </si>
   <si>
     <t>HydroPol2D - Soil Parameters</t>
-  </si>
-  <si>
-    <t>Clay</t>
   </si>
   <si>
     <t>Medium</t>
@@ -827,7 +824,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -852,6 +849,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="18" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1212,7 +1212,7 @@
   <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1265,13 +1265,13 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
-      <c r="C3" s="8">
-        <v>0</v>
+      <c r="C3" s="12">
+        <v>10</v>
       </c>
       <c r="D3" s="9">
         <v>39.5</v>
@@ -1288,27 +1288,13 @@
       <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="5">
-        <v>4</v>
-      </c>
-      <c r="C4" s="8">
-        <v>0</v>
-      </c>
-      <c r="D4" s="9">
-        <v>84.3</v>
-      </c>
-      <c r="E4" s="5">
-        <v>10</v>
-      </c>
-      <c r="F4" s="8">
-        <v>0.29099999999999998</v>
-      </c>
-      <c r="G4" s="5">
-        <v>0</v>
-      </c>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="5"/>
       <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">

--- a/Input_Data_Sheets/SOIL_parameters.xlsx
+++ b/Input_Data_Sheets/SOIL_parameters.xlsx
@@ -1,28 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user1\Documents\GitHub\HydroPol2D\Input_Data_Sheets\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A374B5-D85B-4D37-8276-D737CA07842F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="2625" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="SOIL_parameters" sheetId="1" r:id="rId1"/>
+    <sheet name="SOIL_parameters" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
-    <t>HydroPol2D - Soil Parameters</t>
+    <t xml:space="preserve">HydroPol2D - Soil Parameters</t>
   </si>
   <si>
     <t>Soil_type</t>
@@ -215,64 +208,43 @@
     </r>
   </si>
   <si>
-    <t>TC</t>
-  </si>
-  <si>
-    <t>Clay loam</t>
-  </si>
-  <si>
-    <t>Sandy loam</t>
+    <t xml:space="preserve">Eutric Planosol</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.000"/>
-  </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5">
     <font>
-      <sz val="11"/>
+      <sz val="11.000000"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="12.000000"/>
       <color theme="1"/>
       <name val="Garamond"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="18.000000"/>
       <color indexed="2"/>
       <name val="Garamond"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.000000"/>
       <color theme="1"/>
-      <name val="Garamond"/>
+      <name val="Arial"/>
     </font>
     <font>
-      <vertAlign val="subscript"/>
-      <sz val="12"/>
+      <sz val="12.000000"/>
       <color theme="1"/>
-      <name val="Garamond"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <vertAlign val="superscript"/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Garamond"/>
+      <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -287,99 +259,126 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <fgColor theme="0" tint="-0.049989318521683403"/>
+        <bgColor theme="0" tint="-0.049989318521683403"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor theme="0"/>
+        <fgColor theme="2"/>
+        <bgColor theme="2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="5"/>
+        <bgColor indexed="5"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
     <border>
-      <left/>
+      <left style="none"/>
       <right style="medium">
         <color theme="0" tint="-0.24994659260841701"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="none"/>
+      <right style="none"/>
       <top style="medium">
         <color auto="1"/>
       </top>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
       <bottom style="medium">
         <color theme="0" tint="-0.24994659260841701"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
-      <left/>
+      <left style="none"/>
       <right style="medium">
         <color theme="0" tint="-0.24994659260841701"/>
       </right>
-      <top/>
+      <top style="none"/>
       <bottom style="medium">
         <color theme="0" tint="-0.24994659260841701"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="17">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="1" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="2" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf fontId="2" fillId="3" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf fontId="1" fillId="2" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf fontId="1" fillId="3" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="3" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf fontId="3" fillId="2" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf fontId="4" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf fontId="1" fillId="4" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="3" fillId="5" borderId="3" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf fontId="4" fillId="5" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="1" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="3" fillId="5" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="4" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="1" fillId="3" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="1" fillId="3" borderId="5" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -390,15 +389,295 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Angsana New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -601,286 +880,525 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="G5" activeCellId="0" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" style="1" customWidth="1"/>
-    <col min="4" max="5" width="8.85546875" style="1"/>
-    <col min="6" max="6" width="16.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="6.5703125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.85546875" style="1"/>
+    <col customWidth="1" min="1" max="1" style="1" width="17.42578125"/>
+    <col customWidth="1" min="2" max="2" style="1" width="12.5703125"/>
+    <col customWidth="1" min="3" max="3" style="1" width="21.7109375"/>
+    <col min="4" max="5" style="1" width="8.85546875"/>
+    <col customWidth="1" min="6" max="6" style="1" width="16.28515625"/>
+    <col customWidth="1" min="7" max="7" style="1" width="19.140625"/>
+    <col customWidth="1" min="8" max="8" style="1" width="6.5703125"/>
+    <col min="9" max="16384" style="1" width="8.85546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+    <row r="1" ht="21.75">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="12"/>
-    </row>
-    <row r="2" spans="1:8" ht="19.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" ht="16.5">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" ht="15">
+      <c r="A3" s="6">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6">
+        <v>7001</v>
+      </c>
+      <c r="C3" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="D3" s="7">
+        <v>250</v>
+      </c>
+      <c r="E3" s="8">
+        <v>1</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="G3" s="8">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" ht="15">
+      <c r="A4" s="9">
+        <v>2</v>
+      </c>
+      <c r="B4" s="9">
+        <v>12578</v>
+      </c>
+      <c r="C4" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="D4" s="10">
+        <v>208.80000000000001</v>
+      </c>
+      <c r="E4" s="11">
+        <v>1</v>
+      </c>
+      <c r="F4" s="10">
+        <v>0.432</v>
+      </c>
+      <c r="G4" s="11">
+        <v>0.10000000000000005</v>
+      </c>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" ht="15">
+      <c r="A5" s="12">
+        <v>3</v>
+      </c>
+      <c r="B5" s="12">
+        <v>12600</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="D5" s="7">
+        <v>300</v>
+      </c>
+      <c r="E5" s="8">
+        <v>1</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0.34999999999999998</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0.10000000000000006</v>
+      </c>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" ht="15">
+      <c r="A6" s="12">
+        <v>4</v>
+      </c>
+      <c r="B6" s="12">
+        <v>12611</v>
+      </c>
+      <c r="C6" s="7">
+        <v>7.4999999999999997e-002</v>
+      </c>
+      <c r="D6" s="7">
+        <v>218.5</v>
+      </c>
+      <c r="E6" s="8">
+        <v>1</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0.33000000000000002</v>
+      </c>
+      <c r="G6" s="8">
+        <v>0.10000000000000014</v>
+      </c>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" ht="15">
+      <c r="A7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5">
-        <v>7001</v>
-      </c>
-      <c r="C3" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="E3" s="5">
-        <v>0</v>
-      </c>
-      <c r="F3" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="G3" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="H3" s="3"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="B7" s="12">
+        <v>12622</v>
+      </c>
+      <c r="C7" s="7">
+        <v>2.5000000000000001e-002</v>
+      </c>
+      <c r="D7" s="7">
+        <v>300</v>
+      </c>
+      <c r="E7" s="8">
+        <v>1</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0.34999999999999998</v>
+      </c>
+      <c r="G7" s="8">
+        <v>0.10000000000000006</v>
+      </c>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" ht="15">
+      <c r="A8" s="12">
+        <v>6</v>
+      </c>
+      <c r="B8" s="12">
+        <v>12633</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="D8" s="7">
+        <v>218.5</v>
+      </c>
+      <c r="E8" s="8">
+        <v>1</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0.33000000000000002</v>
+      </c>
+      <c r="G8" s="8">
+        <v>0.10000000000000014</v>
+      </c>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" ht="15">
+      <c r="A9" s="12">
+        <v>7</v>
+      </c>
+      <c r="B9" s="12">
+        <v>12644</v>
+      </c>
+      <c r="C9" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="D9" s="13">
+        <v>208.80000000000001</v>
+      </c>
+      <c r="E9" s="14">
+        <v>1</v>
+      </c>
+      <c r="F9" s="13">
+        <v>0.432</v>
+      </c>
+      <c r="G9" s="14">
+        <v>0.10000000000000005</v>
+      </c>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" ht="15">
+      <c r="A10" s="12">
+        <v>8</v>
+      </c>
+      <c r="B10" s="12">
+        <v>12655</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="D10" s="7">
+        <v>218.5</v>
+      </c>
+      <c r="E10" s="8">
+        <v>1</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0.33000000000000002</v>
+      </c>
+      <c r="G10" s="8">
+        <v>0.10000000000000014</v>
+      </c>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" ht="15">
+      <c r="A11" s="12">
         <v>9</v>
       </c>
-      <c r="B4" s="5">
-        <v>12802</v>
-      </c>
-      <c r="C4" s="6">
-        <v>2</v>
-      </c>
-      <c r="D4" s="7">
-        <v>408.9</v>
-      </c>
-      <c r="E4" s="5">
-        <v>0</v>
-      </c>
-      <c r="F4" s="6">
-        <v>0.46400000000000002</v>
-      </c>
-      <c r="G4" s="5">
-        <v>0.3</v>
-      </c>
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="B11" s="12">
+        <v>12798</v>
+      </c>
+      <c r="C11" s="7">
+        <v>2.5000000000000001e-002</v>
+      </c>
+      <c r="D11" s="7">
+        <v>300</v>
+      </c>
+      <c r="E11" s="8">
+        <v>1</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0.34999999999999998</v>
+      </c>
+      <c r="G11" s="8">
+        <v>0.10000000000000006</v>
+      </c>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" ht="15">
+      <c r="A12" s="12">
         <v>10</v>
       </c>
-      <c r="B5" s="5">
-        <v>12807</v>
-      </c>
-      <c r="C5" s="5">
-        <v>2.1800000000000002</v>
-      </c>
-      <c r="D5" s="5">
-        <v>215.3</v>
-      </c>
-      <c r="E5" s="5">
-        <v>0</v>
-      </c>
-      <c r="F5" s="5">
-        <v>0.45300000000000001</v>
-      </c>
-      <c r="G5" s="5">
-        <v>0.3</v>
-      </c>
-      <c r="H5" s="3"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H11" s="3"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H12" s="3"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H14" s="3"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H15" s="3"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H16" s="3"/>
-    </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H17" s="3"/>
-    </row>
-    <row r="18" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H18" s="3"/>
-    </row>
-    <row r="19" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H19" s="3"/>
-    </row>
-    <row r="20" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H20" s="3"/>
-    </row>
-    <row r="21" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H21" s="3"/>
-    </row>
-    <row r="22" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H22" s="3"/>
-    </row>
-    <row r="23" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H23" s="3"/>
-    </row>
-    <row r="24" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H24" s="3"/>
-    </row>
-    <row r="25" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H25" s="3"/>
-    </row>
-    <row r="26" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H26" s="3"/>
-    </row>
-    <row r="27" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H27" s="3"/>
-    </row>
-    <row r="28" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H28" s="3"/>
-    </row>
-    <row r="29" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H29" s="3"/>
-    </row>
-    <row r="30" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H30" s="3"/>
-    </row>
-    <row r="31" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H31" s="3"/>
-    </row>
-    <row r="32" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H32" s="3"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H33" s="3"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H34" s="3"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H35" s="3"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H36" s="3"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H37" s="3"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H38" s="3"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H39" s="3"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H40" s="3"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H41" s="3"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H42" s="3"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H43" s="3"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H44" s="3"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H45" s="3"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="9"/>
-      <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="10"/>
+      <c r="B12" s="12">
+        <v>12810</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="D12" s="7">
+        <v>218.5</v>
+      </c>
+      <c r="E12" s="8">
+        <v>1</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0.33000000000000002</v>
+      </c>
+      <c r="G12" s="8">
+        <v>0.10000000000000014</v>
+      </c>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" ht="15">
+      <c r="A13" s="12">
+        <v>11</v>
+      </c>
+      <c r="B13" s="12">
+        <v>12814</v>
+      </c>
+      <c r="C13" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="D13" s="7">
+        <v>300</v>
+      </c>
+      <c r="E13" s="8">
+        <v>1</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0.34999999999999998</v>
+      </c>
+      <c r="G13" s="8">
+        <v>0.10000000000000006</v>
+      </c>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" ht="15">
+      <c r="A14" s="12">
+        <v>12</v>
+      </c>
+      <c r="B14" s="12">
+        <v>12820</v>
+      </c>
+      <c r="C14" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="D14" s="13">
+        <v>208.80000000000001</v>
+      </c>
+      <c r="E14" s="14">
+        <v>1</v>
+      </c>
+      <c r="F14" s="13">
+        <v>0.432</v>
+      </c>
+      <c r="G14" s="14">
+        <v>0.10000000000000005</v>
+      </c>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" ht="15">
+      <c r="A15" s="12">
+        <v>13</v>
+      </c>
+      <c r="B15" s="12">
+        <v>12831</v>
+      </c>
+      <c r="C15" s="7">
+        <v>2.5000000000000001e-002</v>
+      </c>
+      <c r="D15" s="7">
+        <v>300</v>
+      </c>
+      <c r="E15" s="8">
+        <v>1</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0.34999999999999998</v>
+      </c>
+      <c r="G15" s="8">
+        <v>0.10000000000000006</v>
+      </c>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" ht="15">
+      <c r="A16" s="12">
+        <v>14</v>
+      </c>
+      <c r="B16" s="12">
+        <v>12842</v>
+      </c>
+      <c r="C16" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="D16" s="13">
+        <v>208.80000000000001</v>
+      </c>
+      <c r="E16" s="14">
+        <v>1</v>
+      </c>
+      <c r="F16" s="13">
+        <v>0.432</v>
+      </c>
+      <c r="G16" s="14">
+        <v>0.10000000000000005</v>
+      </c>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" ht="15">
+      <c r="A17" s="12">
+        <v>15</v>
+      </c>
+      <c r="B17" s="12">
+        <v>12864</v>
+      </c>
+      <c r="C17" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="D17" s="13">
+        <v>208.80000000000001</v>
+      </c>
+      <c r="E17" s="14">
+        <v>1</v>
+      </c>
+      <c r="F17" s="13">
+        <v>0.432</v>
+      </c>
+      <c r="G17" s="14">
+        <v>0.10000000000000005</v>
+      </c>
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18">
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19">
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20">
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21">
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22">
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23">
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24">
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25">
+      <c r="H25" s="5"/>
+    </row>
+    <row r="26">
+      <c r="H26" s="5"/>
+    </row>
+    <row r="27">
+      <c r="H27" s="5"/>
+    </row>
+    <row r="28">
+      <c r="H28" s="5"/>
+    </row>
+    <row r="29">
+      <c r="H29" s="5"/>
+    </row>
+    <row r="30">
+      <c r="H30" s="5"/>
+    </row>
+    <row r="31">
+      <c r="H31" s="5"/>
+    </row>
+    <row r="32">
+      <c r="H32" s="5"/>
+    </row>
+    <row r="33">
+      <c r="H33" s="5"/>
+    </row>
+    <row r="34">
+      <c r="H34" s="5"/>
+    </row>
+    <row r="35">
+      <c r="H35" s="5"/>
+    </row>
+    <row r="36">
+      <c r="H36" s="5"/>
+    </row>
+    <row r="37">
+      <c r="H37" s="5"/>
+    </row>
+    <row r="38">
+      <c r="H38" s="5"/>
+    </row>
+    <row r="39">
+      <c r="H39" s="5"/>
+    </row>
+    <row r="40">
+      <c r="H40" s="5"/>
+    </row>
+    <row r="41">
+      <c r="H41" s="5"/>
+    </row>
+    <row r="42">
+      <c r="H42" s="5"/>
+    </row>
+    <row r="43">
+      <c r="H43" s="5"/>
+    </row>
+    <row r="44">
+      <c r="H44" s="5"/>
+    </row>
+    <row r="45">
+      <c r="H45" s="5"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="15"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Input_Data_Sheets/SOIL_parameters.xlsx
+++ b/Input_Data_Sheets/SOIL_parameters.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user1\Documents\GitHub\HydroPol2D\Input_Data_Sheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcu\Documents\GitHub\HydroPol2D\Input_Data_Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A374B5-D85B-4D37-8276-D737CA07842F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AEC5931-AA6B-4066-A800-DFAEB583613C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="2625" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SOIL_parameters" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>HydroPol2D - Soil Parameters</t>
   </si>
@@ -40,6 +53,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Garamond"/>
+        <family val="1"/>
       </rPr>
       <t>sat</t>
     </r>
@@ -48,6 +62,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Garamond"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve"> (mm/h)</t>
     </r>
@@ -58,6 +73,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>ψ</t>
     </r>
@@ -66,6 +82,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Garamond"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve"> (mm)</t>
     </r>
@@ -80,6 +97,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Garamond"/>
+        <family val="1"/>
       </rPr>
       <t>0</t>
     </r>
@@ -88,6 +106,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Garamond"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve"> (mm)</t>
     </r>
@@ -98,6 +117,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>θ</t>
     </r>
@@ -107,6 +127,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Garamond"/>
+        <family val="1"/>
       </rPr>
       <t>sat</t>
     </r>
@@ -115,6 +136,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Garamond"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve"> (cm</t>
     </r>
@@ -124,6 +146,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Garamond"/>
+        <family val="1"/>
       </rPr>
       <t>3</t>
     </r>
@@ -132,6 +155,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Garamond"/>
+        <family val="1"/>
       </rPr>
       <t>.cm</t>
     </r>
@@ -141,6 +165,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Garamond"/>
+        <family val="1"/>
       </rPr>
       <t>-3</t>
     </r>
@@ -149,6 +174,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Garamond"/>
+        <family val="1"/>
       </rPr>
       <t>)</t>
     </r>
@@ -159,6 +185,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>θ</t>
     </r>
@@ -168,6 +195,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Garamond"/>
+        <family val="1"/>
       </rPr>
       <t>i</t>
     </r>
@@ -176,6 +204,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Garamond"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve"> (cm</t>
     </r>
@@ -185,6 +214,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Garamond"/>
+        <family val="1"/>
       </rPr>
       <t>3</t>
     </r>
@@ -193,6 +223,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Garamond"/>
+        <family val="1"/>
       </rPr>
       <t>.cm</t>
     </r>
@@ -202,6 +233,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Garamond"/>
+        <family val="1"/>
       </rPr>
       <t>-3</t>
     </r>
@@ -210,18 +242,46 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Garamond"/>
+        <family val="1"/>
       </rPr>
       <t>)</t>
     </r>
   </si>
   <si>
-    <t>TC</t>
-  </si>
-  <si>
-    <t>Clay loam</t>
-  </si>
-  <si>
-    <t>Sandy loam</t>
+    <t>Clay</t>
+  </si>
+  <si>
+    <t>Silty Clay</t>
+  </si>
+  <si>
+    <t>Sandy Clay</t>
+  </si>
+  <si>
+    <t>Clay Loam</t>
+  </si>
+  <si>
+    <t>Silty Clay Loam</t>
+  </si>
+  <si>
+    <t>Sandy Clay Loam</t>
+  </si>
+  <si>
+    <t>Loam</t>
+  </si>
+  <si>
+    <t>Silty Loam</t>
+  </si>
+  <si>
+    <t>Sandy Loam</t>
+  </si>
+  <si>
+    <t>Silt</t>
+  </si>
+  <si>
+    <t>Loamy Sand</t>
+  </si>
+  <si>
+    <t>Sand</t>
   </si>
 </sst>
 </file>
@@ -242,34 +302,40 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Garamond"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
       <color indexed="2"/>
       <name val="Garamond"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Garamond"/>
+      <family val="1"/>
     </font>
     <font>
       <vertAlign val="subscript"/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Garamond"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <vertAlign val="superscript"/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Garamond"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -395,6 +461,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>257175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>392616</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>96113</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A0B5636-34EB-2237-3AFF-80ED7A68653C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7600950" y="257175"/>
+          <a:ext cx="14984916" cy="6182588"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -610,7 +725,7 @@
   <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -666,22 +781,22 @@
         <v>8</v>
       </c>
       <c r="B3" s="5">
-        <v>7001</v>
+        <v>1</v>
       </c>
       <c r="C3" s="5">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="D3" s="5">
-        <v>0.1</v>
+        <v>316.3</v>
       </c>
       <c r="E3" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F3" s="5">
-        <v>0.1</v>
+        <v>0.38500000000000001</v>
       </c>
       <c r="G3" s="5">
-        <v>0.1</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="H3" s="3"/>
     </row>
@@ -690,22 +805,22 @@
         <v>9</v>
       </c>
       <c r="B4" s="5">
-        <v>12802</v>
+        <v>2</v>
       </c>
       <c r="C4" s="6">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="D4" s="7">
-        <v>408.9</v>
+        <v>292.2</v>
       </c>
       <c r="E4" s="5">
-        <v>0</v>
-      </c>
-      <c r="F4" s="6">
-        <v>0.46400000000000002</v>
-      </c>
-      <c r="G4" s="5">
-        <v>0.3</v>
+        <v>10</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0.42299999999999999</v>
+      </c>
+      <c r="G4" s="8">
+        <v>1E-4</v>
       </c>
       <c r="H4" s="3"/>
     </row>
@@ -714,63 +829,239 @@
         <v>10</v>
       </c>
       <c r="B5" s="5">
-        <v>12807</v>
+        <v>3</v>
       </c>
       <c r="C5" s="5">
-        <v>2.1800000000000002</v>
+        <v>0.6</v>
       </c>
       <c r="D5" s="5">
-        <v>215.3</v>
+        <v>239</v>
       </c>
       <c r="E5" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F5" s="5">
-        <v>0.45300000000000001</v>
-      </c>
-      <c r="G5" s="5">
-        <v>0.3</v>
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="G5" s="8">
+        <v>1E-4</v>
       </c>
       <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
+      <c r="A6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="8">
+        <v>1</v>
+      </c>
+      <c r="D6" s="8">
+        <v>208.8</v>
+      </c>
+      <c r="E6" s="5">
+        <v>10</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0.309</v>
+      </c>
+      <c r="G6" s="8">
+        <v>1E-4</v>
+      </c>
       <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
+      <c r="A7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="8">
+        <v>1</v>
+      </c>
+      <c r="D7" s="8">
+        <v>273</v>
+      </c>
+      <c r="E7" s="5">
+        <v>10</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0.432</v>
+      </c>
+      <c r="G7" s="8">
+        <v>1E-4</v>
+      </c>
       <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="D8" s="1">
+        <v>218.5</v>
+      </c>
+      <c r="E8" s="5">
+        <v>10</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0.33</v>
+      </c>
+      <c r="G8" s="8">
+        <v>1E-4</v>
+      </c>
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="5">
+        <v>7</v>
+      </c>
+      <c r="C9" s="8">
+        <v>3.4</v>
+      </c>
+      <c r="D9" s="1">
+        <v>166.8</v>
+      </c>
+      <c r="E9" s="5">
+        <v>10</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="G9" s="8">
+        <v>1E-4</v>
+      </c>
       <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="5">
+        <v>8</v>
+      </c>
+      <c r="C10" s="8">
+        <v>7.6</v>
+      </c>
+      <c r="D10" s="1">
+        <v>88.9</v>
+      </c>
+      <c r="E10" s="5">
+        <v>10</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0.434</v>
+      </c>
+      <c r="G10" s="8">
+        <v>1E-4</v>
+      </c>
       <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="5">
+        <v>9</v>
+      </c>
+      <c r="C11" s="8">
+        <v>10.9</v>
+      </c>
+      <c r="D11" s="1">
+        <v>110.1</v>
+      </c>
+      <c r="E11" s="5">
+        <v>10</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="G11" s="8">
+        <v>1E-4</v>
+      </c>
       <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="5">
+        <v>10</v>
+      </c>
+      <c r="C12" s="8">
+        <v>20</v>
+      </c>
+      <c r="D12" s="1">
+        <v>40</v>
+      </c>
+      <c r="E12" s="5">
+        <v>10</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="G12" s="8">
+        <v>1E-4</v>
+      </c>
       <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="5">
+        <v>11</v>
+      </c>
+      <c r="C13" s="8">
+        <v>61.3</v>
+      </c>
+      <c r="D13" s="1">
+        <v>29.9</v>
+      </c>
+      <c r="E13" s="5">
+        <v>10</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0.40100000000000002</v>
+      </c>
+      <c r="G13" s="8">
+        <v>1E-4</v>
+      </c>
       <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="5">
+        <v>12</v>
+      </c>
+      <c r="C14" s="8">
+        <v>117.8</v>
+      </c>
+      <c r="D14" s="1">
+        <v>49.5</v>
+      </c>
+      <c r="E14" s="5">
+        <v>10</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="G14" s="8">
+        <v>1E-4</v>
+      </c>
       <c r="H14" s="3"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -882,5 +1173,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Input_Data_Sheets/SOIL_parameters.xlsx
+++ b/Input_Data_Sheets/SOIL_parameters.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcu\Documents\GitHub\HydroPol2D\Input_Data_Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AEC5931-AA6B-4066-A800-DFAEB583613C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD5A2955-777D-4846-A15F-7F664A8C1A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,8 +32,234 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Marcus Nóbrega</author>
+  </authors>
+  <commentList>
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{247733F4-E150-4C45-A797-CAE0EDE203F3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Marcus Nóbrega:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Soil vertical saturated hydraulic conductivity</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{56BE593C-B5DE-405F-8F22-92352CF706C0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Marcus Nóbrega:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Suction head</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{C0C5431C-9716-4413-A25B-ED493048B95B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Marcus Nóbrega:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Initial soil moisture when not using an initial soil moisture map</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{8C7EE731-B9FD-41AD-9262-518DA8E6592B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Marcus Nóbrega:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Porosity</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{AD577E68-13B3-4CD1-A031-D704F79578F1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Marcus Nóbrega:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Residual porosity</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{492400A5-4EC7-4D59-9392-67F427CE922A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Marcus Nóbrega:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Unstaturated zone reservoir coefficient (assuming a linear reservoir)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{9528185C-E7A3-461B-8C4E-8D731B44B687}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Marcus Nóbrega:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Drainable porosity for the perched aquifer</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{F9E1FEB4-7B7F-4997-8453-EB4A57236860}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Marcus Nóbrega:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Horizontal saturated hydraulic conductivity</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{21CC040C-E75C-4F0E-B03D-568A2D822A11}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Marcus Nóbrega:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Soil depth [m] only used when the distance to bedrock (DTB) raster is not used.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>HydroPol2D - Soil Parameters</t>
   </si>
@@ -282,16 +508,77 @@
   </si>
   <si>
     <t>Sand</t>
+  </si>
+  <si>
+    <t>k (1/h)</t>
+  </si>
+  <si>
+    <t>Sy [-]</t>
+  </si>
+  <si>
+    <r>
+      <t>k</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>g</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>sat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (mm/h)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>soil</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (mm/h)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.000"/>
-  </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -336,6 +623,19 @@
       <color theme="1"/>
       <name val="Garamond"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -429,12 +729,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -446,6 +740,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -467,16 +765,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>257175</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
+      <xdr:col>38</xdr:col>
       <xdr:colOff>392616</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>96113</xdr:rowOff>
+      <xdr:rowOff>77063</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -721,11 +1019,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -735,24 +1033,29 @@
     <col min="3" max="3" width="21.7109375" style="1" customWidth="1"/>
     <col min="4" max="5" width="8.85546875" style="1"/>
     <col min="6" max="6" width="16.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="6.5703125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.85546875" style="1"/>
+    <col min="7" max="11" width="19.140625" style="1" customWidth="1"/>
+    <col min="12" max="13" width="6.5703125" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:13" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="12"/>
-    </row>
-    <row r="2" spans="1:8" ht="19.5" x14ac:dyDescent="0.35">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="11"/>
+    </row>
+    <row r="2" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -774,9 +1077,22 @@
       <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="3"/>
+      <c r="M2" s="12"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -798,19 +1114,32 @@
       <c r="G3" s="5">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="H3" s="3"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H3" s="5">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="J3" s="5">
+        <v>180</v>
+      </c>
+      <c r="K3" s="6">
+        <v>1</v>
+      </c>
+      <c r="L3" s="3"/>
+      <c r="M3" s="12"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>0.5</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="5">
         <v>292.2</v>
       </c>
       <c r="E4" s="5">
@@ -819,12 +1148,25 @@
       <c r="F4" s="5">
         <v>0.42299999999999999</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="5">
         <v>1E-4</v>
       </c>
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H4" s="5">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="J4" s="5">
+        <v>180</v>
+      </c>
+      <c r="K4" s="6">
+        <v>1</v>
+      </c>
+      <c r="L4" s="3"/>
+      <c r="M4" s="12"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
@@ -843,22 +1185,35 @@
       <c r="F5" s="5">
         <v>0.32100000000000001</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="5">
         <v>1E-4</v>
       </c>
-      <c r="H5" s="3"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="H5" s="5">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="J5" s="5">
+        <v>180</v>
+      </c>
+      <c r="K5" s="6">
+        <v>1</v>
+      </c>
+      <c r="L5" s="3"/>
+      <c r="M5" s="12"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="5">
         <v>1</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="5">
         <v>208.8</v>
       </c>
       <c r="E6" s="5">
@@ -867,22 +1222,35 @@
       <c r="F6" s="5">
         <v>0.309</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="5">
         <v>1E-4</v>
       </c>
-      <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="H6" s="5">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="J6" s="5">
+        <v>180</v>
+      </c>
+      <c r="K6" s="6">
+        <v>1</v>
+      </c>
+      <c r="L6" s="3"/>
+      <c r="M6" s="12"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="5">
         <v>1</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="5">
         <v>273</v>
       </c>
       <c r="E7" s="5">
@@ -891,22 +1259,35 @@
       <c r="F7" s="5">
         <v>0.432</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="5">
         <v>1E-4</v>
       </c>
-      <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="H7" s="5">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="J7" s="5">
+        <v>180</v>
+      </c>
+      <c r="K7" s="6">
+        <v>1</v>
+      </c>
+      <c r="L7" s="3"/>
+      <c r="M7" s="12"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="5">
         <v>1.5</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="5">
         <v>218.5</v>
       </c>
       <c r="E8" s="5">
@@ -915,22 +1296,35 @@
       <c r="F8" s="5">
         <v>0.33</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="5">
         <v>1E-4</v>
       </c>
-      <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="H8" s="5">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="J8" s="5">
+        <v>180</v>
+      </c>
+      <c r="K8" s="6">
+        <v>1</v>
+      </c>
+      <c r="L8" s="3"/>
+      <c r="M8" s="12"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="5">
         <v>7</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="5">
         <v>3.4</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="5">
         <v>166.8</v>
       </c>
       <c r="E9" s="5">
@@ -939,22 +1333,35 @@
       <c r="F9" s="5">
         <v>0.48599999999999999</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="5">
         <v>1E-4</v>
       </c>
-      <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="H9" s="5">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="J9" s="5">
+        <v>180</v>
+      </c>
+      <c r="K9" s="6">
+        <v>1</v>
+      </c>
+      <c r="L9" s="3"/>
+      <c r="M9" s="12"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="5">
         <v>8</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="5">
         <v>7.6</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="5">
         <v>88.9</v>
       </c>
       <c r="E10" s="5">
@@ -963,22 +1370,35 @@
       <c r="F10" s="5">
         <v>0.434</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="5">
         <v>1E-4</v>
       </c>
-      <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="H10" s="5">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="J10" s="5">
+        <v>180</v>
+      </c>
+      <c r="K10" s="6">
+        <v>1</v>
+      </c>
+      <c r="L10" s="3"/>
+      <c r="M10" s="12"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="5">
         <v>9</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="5">
         <v>10.9</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="5">
         <v>110.1</v>
       </c>
       <c r="E11" s="5">
@@ -987,22 +1407,35 @@
       <c r="F11" s="5">
         <v>0.41199999999999998</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="5">
         <v>1E-4</v>
       </c>
-      <c r="H11" s="3"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="H11" s="5">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="I11" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="J11" s="5">
+        <v>180</v>
+      </c>
+      <c r="K11" s="6">
+        <v>1</v>
+      </c>
+      <c r="L11" s="3"/>
+      <c r="M11" s="12"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="5">
         <v>10</v>
       </c>
-      <c r="C12" s="8">
-        <v>20</v>
-      </c>
-      <c r="D12" s="1">
+      <c r="C12" s="5">
+        <v>14.9</v>
+      </c>
+      <c r="D12" s="5">
         <v>40</v>
       </c>
       <c r="E12" s="5">
@@ -1011,22 +1444,35 @@
       <c r="F12" s="5">
         <v>0.40799999999999997</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="5">
         <v>1E-4</v>
       </c>
-      <c r="H12" s="3"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="H12" s="5">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="I12" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="J12" s="5">
+        <v>180</v>
+      </c>
+      <c r="K12" s="6">
+        <v>1</v>
+      </c>
+      <c r="L12" s="3"/>
+      <c r="M12" s="12"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B13" s="5">
         <v>11</v>
       </c>
-      <c r="C13" s="8">
-        <v>61.3</v>
-      </c>
-      <c r="D13" s="1">
+      <c r="C13" s="5">
+        <v>29.9</v>
+      </c>
+      <c r="D13" s="5">
         <v>29.9</v>
       </c>
       <c r="E13" s="5">
@@ -1035,22 +1481,35 @@
       <c r="F13" s="5">
         <v>0.40100000000000002</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="5">
         <v>1E-4</v>
       </c>
-      <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="H13" s="5">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="I13" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="J13" s="5">
+        <v>180</v>
+      </c>
+      <c r="K13" s="6">
+        <v>1</v>
+      </c>
+      <c r="L13" s="3"/>
+      <c r="M13" s="12"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="5">
         <v>12</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="5">
         <v>117.8</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="5">
         <v>49.5</v>
       </c>
       <c r="E14" s="5">
@@ -1059,120 +1518,170 @@
       <c r="F14" s="5">
         <v>0.41699999999999998</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="5">
         <v>1E-4</v>
       </c>
-      <c r="H14" s="3"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H15" s="3"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H16" s="3"/>
-    </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H17" s="3"/>
-    </row>
-    <row r="18" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H18" s="3"/>
-    </row>
-    <row r="19" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H19" s="3"/>
-    </row>
-    <row r="20" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H20" s="3"/>
-    </row>
-    <row r="21" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H21" s="3"/>
-    </row>
-    <row r="22" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H22" s="3"/>
-    </row>
-    <row r="23" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H23" s="3"/>
-    </row>
-    <row r="24" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H24" s="3"/>
-    </row>
-    <row r="25" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H25" s="3"/>
-    </row>
-    <row r="26" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H26" s="3"/>
-    </row>
-    <row r="27" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H27" s="3"/>
-    </row>
-    <row r="28" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H28" s="3"/>
-    </row>
-    <row r="29" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H29" s="3"/>
-    </row>
-    <row r="30" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H30" s="3"/>
-    </row>
-    <row r="31" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H31" s="3"/>
-    </row>
-    <row r="32" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H32" s="3"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H33" s="3"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H34" s="3"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H35" s="3"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H36" s="3"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H37" s="3"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H38" s="3"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H39" s="3"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H40" s="3"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H41" s="3"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H42" s="3"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H43" s="3"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H44" s="3"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H45" s="3"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="9"/>
-      <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="10"/>
+      <c r="H14" s="5">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="I14" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="J14" s="5">
+        <v>180</v>
+      </c>
+      <c r="K14" s="6">
+        <v>1</v>
+      </c>
+      <c r="L14" s="3"/>
+      <c r="M14" s="12"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L15" s="3"/>
+      <c r="M15" s="12"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L16" s="3"/>
+      <c r="M16" s="12"/>
+    </row>
+    <row r="17" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L17" s="3"/>
+      <c r="M17" s="12"/>
+    </row>
+    <row r="18" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L18" s="3"/>
+      <c r="M18" s="12"/>
+    </row>
+    <row r="19" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L19" s="3"/>
+      <c r="M19" s="12"/>
+    </row>
+    <row r="20" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L20" s="3"/>
+      <c r="M20" s="12"/>
+    </row>
+    <row r="21" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L21" s="3"/>
+      <c r="M21" s="12"/>
+    </row>
+    <row r="22" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L22" s="3"/>
+      <c r="M22" s="12"/>
+    </row>
+    <row r="23" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L23" s="3"/>
+      <c r="M23" s="12"/>
+    </row>
+    <row r="24" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L24" s="3"/>
+      <c r="M24" s="12"/>
+    </row>
+    <row r="25" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L25" s="3"/>
+      <c r="M25" s="12"/>
+    </row>
+    <row r="26" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L26" s="3"/>
+      <c r="M26" s="12"/>
+    </row>
+    <row r="27" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L27" s="3"/>
+      <c r="M27" s="12"/>
+    </row>
+    <row r="28" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L28" s="3"/>
+      <c r="M28" s="12"/>
+    </row>
+    <row r="29" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L29" s="3"/>
+      <c r="M29" s="12"/>
+    </row>
+    <row r="30" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L30" s="3"/>
+      <c r="M30" s="12"/>
+    </row>
+    <row r="31" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L31" s="3"/>
+      <c r="M31" s="12"/>
+    </row>
+    <row r="32" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L32" s="3"/>
+      <c r="M32" s="12"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L33" s="3"/>
+      <c r="M33" s="12"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L34" s="3"/>
+      <c r="M34" s="12"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L35" s="3"/>
+      <c r="M35" s="12"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L36" s="3"/>
+      <c r="M36" s="12"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L37" s="3"/>
+      <c r="M37" s="12"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L38" s="3"/>
+      <c r="M38" s="12"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L39" s="3"/>
+      <c r="M39" s="12"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L40" s="3"/>
+      <c r="M40" s="12"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L41" s="3"/>
+      <c r="M41" s="12"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L42" s="3"/>
+      <c r="M42" s="12"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L43" s="3"/>
+      <c r="M43" s="12"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L44" s="3"/>
+      <c r="M44" s="12"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L45" s="3"/>
+      <c r="M45" s="12"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" s="7"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="8"/>
+      <c r="M46" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>